--- a/Prosper Loan Data - Variable Definitions.xlsx
+++ b/Prosper Loan Data - Variable Definitions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e08fd394e74f4d47/Documents/GitHub/Udacity_project/Project_Communicate_Data_Findings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="324" documentId="11_E3C4FA5182FD3034AAC1B14BF172D2E4497693E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0756C31E-4CDD-4771-B981-78565E5CA5A8}"/>
+  <xr:revisionPtr revIDLastSave="355" documentId="11_E3C4FA5182FD3034AAC1B14BF172D2E4497693E5" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{37D570DF-1ABD-416D-9F04-1C5ACA337BEB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21480" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="208">
   <si>
     <t>Variable</t>
   </si>
@@ -618,6 +618,33 @@
   </si>
   <si>
     <t>maybe</t>
+  </si>
+  <si>
+    <t>C:\Users\Kaori\OneDrive\Documents\GitHub\Udacity_project\Project_Communicate_Data_Findings</t>
+  </si>
+  <si>
+    <t>income ratio?</t>
+  </si>
+  <si>
+    <t>bank card utili</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loan original </t>
+  </si>
+  <si>
+    <t>credit score range</t>
+  </si>
+  <si>
+    <t>deliquencies?</t>
+  </si>
+  <si>
+    <t>Deabt to income ok? Not interactubf,]</t>
+  </si>
+  <si>
+    <t>dabt to income make it log scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> original loan amount, prosper rating, bankcard Utilization, income and employment status interact</t>
   </si>
 </sst>
 </file>
@@ -653,7 +680,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +759,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="26">
     <border>
@@ -1086,7 +1119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1225,9 +1258,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1272,6 +1302,25 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,16 +1348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>1200150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1338,7 +1387,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3971925" y="4638675"/>
+          <a:off x="7200900" y="5486400"/>
           <a:ext cx="5572125" cy="4152900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1663,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -2768,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2EE471-5CB5-4EE7-819C-6BB413519D08}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2779,20 +2828,20 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>12</v>
       </c>
       <c r="C1" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="67" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="67" t="s">
         <v>95</v>
       </c>
       <c r="G1" s="28" t="s">
@@ -2819,62 +2868,65 @@
       <c r="N1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="O1" s="38" t="s">
         <v>127</v>
       </c>
       <c r="P1" s="38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="29"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="K2" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="L2" s="47" t="s">
+      <c r="L2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="N2" s="47" t="s">
+      <c r="N2" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="O2" s="50" t="s">
+      <c r="O2" s="49" t="s">
         <v>186</v>
       </c>
-      <c r="P2" s="51" t="s">
+      <c r="P2" s="50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>184</v>
       </c>
@@ -2900,21 +2952,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:17" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="60" t="s">
         <v>189</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="54" t="s">
         <v>196</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="21"/>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>1</v>
       </c>
       <c r="I4" s="17"/>
@@ -2924,18 +2976,18 @@
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="18"/>
-      <c r="P4" s="54">
+      <c r="P4" s="53">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="54" t="s">
         <v>197</v>
       </c>
       <c r="D5" s="45" t="s">
@@ -2954,14 +3006,14 @@
       <c r="O5" s="17"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+    <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="54" t="s">
         <v>197</v>
       </c>
       <c r="D6" s="45" t="s">
@@ -2980,7 +3032,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="21"/>
     </row>
-    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>183</v>
       </c>
@@ -3004,22 +3056,22 @@
       <c r="O7" s="22"/>
       <c r="P7" s="23"/>
     </row>
-    <row r="8" spans="1:16" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="59" t="s">
         <v>195</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>194</v>
       </c>
       <c r="H8" s="32"/>
@@ -3032,7 +3084,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="20"/>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>99</v>
       </c>
@@ -3054,22 +3106,22 @@
       <c r="O9" s="17"/>
       <c r="P9" s="21"/>
     </row>
-    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="54" t="s">
         <v>191</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="57" t="s">
         <v>193</v>
       </c>
       <c r="H10" s="19"/>
@@ -3082,7 +3134,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="21"/>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>71</v>
       </c>
@@ -3094,7 +3146,9 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="21"/>
-      <c r="H11" s="19"/>
+      <c r="H11" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
       <c r="K11" s="30"/>
@@ -3104,7 +3158,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="21"/>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>73</v>
       </c>
@@ -3126,7 +3180,7 @@
       <c r="O12" s="17"/>
       <c r="P12" s="21"/>
     </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>185</v>
       </c>
@@ -3148,7 +3202,7 @@
       <c r="O13" s="17"/>
       <c r="P13" s="21"/>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>83</v>
       </c>
@@ -3160,7 +3214,9 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="21"/>
-      <c r="H14" s="19"/>
+      <c r="H14" s="62" t="s">
+        <v>188</v>
+      </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
@@ -3170,28 +3226,30 @@
       <c r="O14" s="17"/>
       <c r="P14" s="21"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
         <v>127</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>192</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="58" t="s">
+      <c r="G15" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="64" t="s">
         <v>189</v>
       </c>
-      <c r="I15" s="17"/>
+      <c r="I15" s="63" t="s">
+        <v>189</v>
+      </c>
       <c r="J15" s="17"/>
       <c r="K15" s="45"/>
       <c r="L15" s="17"/>
@@ -3200,7 +3258,7 @@
       <c r="O15" s="30"/>
       <c r="P15" s="21"/>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>16</v>
       </c>
@@ -3210,12 +3268,12 @@
       <c r="C16" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="51" t="s">
         <v>191</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="56" t="s">
         <v>190</v>
       </c>
       <c r="H16" s="43" t="s">
@@ -3223,24 +3281,68 @@
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="52" t="s">
+      <c r="N16" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="O16" s="52" t="s">
-        <v>189</v>
+      <c r="O16" s="51" t="s">
+        <v>188</v>
       </c>
       <c r="P16" s="31"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
         <v>187</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>